--- a/relatorios/repasses_liberados/dentistas/90557794404/2023-08-25_relatorio_repasses_90557794404.xlsx
+++ b/relatorios/repasses_liberados/dentistas/90557794404/2023-08-25_relatorio_repasses_90557794404.xlsx
@@ -33867,10 +33867,10 @@
         <v>0</v>
       </c>
       <c r="M735">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N735">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="736" spans="1:14">
@@ -33911,10 +33911,10 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N736">
-        <v>65</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="737" spans="1:14">
@@ -33999,10 +33999,10 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N738">
-        <v>6.569999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:14">
@@ -34175,10 +34175,10 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N742">
-        <v>6.569999999999999</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="743" spans="1:14">
@@ -34219,10 +34219,10 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N743">
-        <v>6.569999999999999</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="744" spans="1:14">
@@ -34263,10 +34263,10 @@
         <v>0</v>
       </c>
       <c r="M744">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N744">
-        <v>8.76</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="745" spans="1:14">
@@ -34307,10 +34307,10 @@
         <v>0</v>
       </c>
       <c r="M745">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N745">
-        <v>8.76</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="746" spans="1:14">
@@ -36331,7 +36331,7 @@
         <v>0</v>
       </c>
       <c r="M791">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N791">
         <v>0</v>
@@ -36419,7 +36419,7 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N793">
         <v>0</v>
@@ -36463,7 +36463,7 @@
         <v>0</v>
       </c>
       <c r="M794">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N794">
         <v>0</v>
@@ -36551,7 +36551,7 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N796">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="M799">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N799">
         <v>0</v>
@@ -37079,7 +37079,7 @@
         <v>0</v>
       </c>
       <c r="M808">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N808">
         <v>0</v>
@@ -37123,7 +37123,7 @@
         <v>0</v>
       </c>
       <c r="M809">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N809">
         <v>0</v>
@@ -37167,7 +37167,7 @@
         <v>0</v>
       </c>
       <c r="M810">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N810">
         <v>0</v>
@@ -37255,7 +37255,7 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N812">
         <v>0</v>
@@ -37343,7 +37343,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="M819">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N819">
         <v>0</v>
@@ -37651,7 +37651,7 @@
         <v>0</v>
       </c>
       <c r="M821">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N821">
         <v>0</v>
@@ -37739,7 +37739,7 @@
         <v>0</v>
       </c>
       <c r="M823">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N823">
         <v>0</v>
@@ -38003,7 +38003,7 @@
         <v>0</v>
       </c>
       <c r="M829">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N829">
         <v>0</v>
@@ -39103,7 +39103,7 @@
         <v>0</v>
       </c>
       <c r="M854">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N854">
         <v>0</v>
@@ -39191,7 +39191,7 @@
         <v>0</v>
       </c>
       <c r="M856">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N856">
         <v>0</v>
@@ -39543,7 +39543,7 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N864">
         <v>0</v>
@@ -39631,7 +39631,7 @@
         <v>0</v>
       </c>
       <c r="M866">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N866">
         <v>0</v>
@@ -39763,7 +39763,7 @@
         <v>0</v>
       </c>
       <c r="M869">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N869">
         <v>0</v>
@@ -41435,7 +41435,7 @@
         <v>0</v>
       </c>
       <c r="M907">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N907">
         <v>0</v>
@@ -41479,7 +41479,7 @@
         <v>0</v>
       </c>
       <c r="M908">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N908">
         <v>0</v>
@@ -41655,7 +41655,7 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N912">
         <v>0</v>
@@ -41699,7 +41699,7 @@
         <v>0</v>
       </c>
       <c r="M913">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N913">
         <v>0</v>
@@ -42139,7 +42139,7 @@
         <v>0</v>
       </c>
       <c r="M923">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N923">
         <v>0</v>
@@ -42227,7 +42227,7 @@
         <v>0</v>
       </c>
       <c r="M925">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N925">
         <v>0</v>
@@ -42271,7 +42271,7 @@
         <v>0</v>
       </c>
       <c r="M926">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N926">
         <v>0</v>
@@ -42491,7 +42491,7 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N931">
         <v>0</v>
@@ -42535,7 +42535,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -43107,7 +43107,7 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N945">
         <v>0</v>
@@ -43195,7 +43195,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -43283,7 +43283,7 @@
         <v>0</v>
       </c>
       <c r="M949">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N949">
         <v>0</v>
@@ -43591,7 +43591,7 @@
         <v>0</v>
       </c>
       <c r="M956">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N956">
         <v>0</v>
@@ -43635,7 +43635,7 @@
         <v>0</v>
       </c>
       <c r="M957">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N957">
         <v>0</v>
@@ -44955,7 +44955,7 @@
         <v>0</v>
       </c>
       <c r="M987">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N987">
         <v>0</v>
@@ -45087,7 +45087,7 @@
         <v>0</v>
       </c>
       <c r="M990">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N990">
         <v>0</v>
@@ -45131,7 +45131,7 @@
         <v>0</v>
       </c>
       <c r="M991">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N991">
         <v>0</v>
@@ -45923,7 +45923,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46363,7 +46363,7 @@
         <v>0</v>
       </c>
       <c r="M1019">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1019">
         <v>0</v>
@@ -46407,7 +46407,7 @@
         <v>0</v>
       </c>
       <c r="M1020">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1020">
         <v>0</v>
@@ -47947,7 +47947,7 @@
         <v>0</v>
       </c>
       <c r="M1055">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1055">
         <v>0</v>
@@ -48035,7 +48035,7 @@
         <v>0</v>
       </c>
       <c r="M1057">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1057">
         <v>0</v>
@@ -48079,7 +48079,7 @@
         <v>0</v>
       </c>
       <c r="M1058">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1058">
         <v>0</v>
@@ -48123,7 +48123,7 @@
         <v>0</v>
       </c>
       <c r="M1059">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1059">
         <v>0</v>
@@ -48431,7 +48431,7 @@
         <v>0</v>
       </c>
       <c r="M1066">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1066">
         <v>0</v>
@@ -48475,7 +48475,7 @@
         <v>0</v>
       </c>
       <c r="M1067">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1067">
         <v>0</v>
@@ -48519,7 +48519,7 @@
         <v>0</v>
       </c>
       <c r="M1068">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1068">
         <v>0</v>
@@ -48563,7 +48563,7 @@
         <v>0</v>
       </c>
       <c r="M1069">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1069">
         <v>0</v>
@@ -49091,7 +49091,7 @@
         <v>0</v>
       </c>
       <c r="M1081">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1081">
         <v>0</v>
@@ -49355,7 +49355,7 @@
         <v>0</v>
       </c>
       <c r="M1087">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1087">
         <v>0</v>
@@ -50807,7 +50807,7 @@
         <v>0</v>
       </c>
       <c r="M1120">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1120">
         <v>0</v>
@@ -50895,7 +50895,7 @@
         <v>0</v>
       </c>
       <c r="M1122">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1122">
         <v>0</v>
@@ -51687,7 +51687,7 @@
         <v>0</v>
       </c>
       <c r="M1140">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1140">
         <v>0</v>
@@ -51731,7 +51731,7 @@
         <v>0</v>
       </c>
       <c r="M1141">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1141">
         <v>0</v>
@@ -51819,7 +51819,7 @@
         <v>0</v>
       </c>
       <c r="M1143">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1143">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/90557794404/2023-08-25_relatorio_repasses_90557794404.xlsx
+++ b/relatorios/repasses_liberados/dentistas/90557794404/2023-08-25_relatorio_repasses_90557794404.xlsx
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -13759,10 +13759,10 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N278">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -13803,10 +13803,10 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N279">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -14155,10 +14155,10 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N287">
-        <v>10.696</v>
+        <v>8.021999999999998</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -14331,10 +14331,10 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N291">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -14375,10 +14375,10 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N292">
-        <v>17.28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -14419,10 +14419,10 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N293">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -14463,10 +14463,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14507,10 +14507,10 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -14551,10 +14551,10 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -14595,10 +14595,10 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N297">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -14639,10 +14639,10 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -14683,10 +14683,10 @@
         <v>0</v>
       </c>
       <c r="M299">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N299">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="300" spans="1:14">
@@ -14727,10 +14727,10 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -14771,10 +14771,10 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N301">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -14903,10 +14903,10 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N304">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14947,10 +14947,10 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N305">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -15035,10 +15035,10 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -15079,10 +15079,10 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N308">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -15167,10 +15167,10 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -15211,10 +15211,10 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N311">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15255,10 +15255,10 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N312">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -15299,10 +15299,10 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N313">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -15343,10 +15343,10 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N314">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -15387,10 +15387,10 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -15431,10 +15431,10 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N316">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15475,10 +15475,10 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N317">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -15519,10 +15519,10 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N318">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15563,10 +15563,10 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N319">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -15607,10 +15607,10 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N320">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -15651,10 +15651,10 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N321">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -15695,10 +15695,10 @@
         <v>0</v>
       </c>
       <c r="M322">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N322">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -16223,10 +16223,10 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N334">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -16267,10 +16267,10 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N335">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:14">
@@ -16311,10 +16311,10 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N336">
-        <v>8.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -16399,10 +16399,10 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N338">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="339" spans="1:14">
@@ -16487,10 +16487,10 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N340">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N341">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -16575,10 +16575,10 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N342">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -16619,10 +16619,10 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N343">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="344" spans="1:14">
@@ -16663,10 +16663,10 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N344">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -16707,10 +16707,10 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N345">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -16751,10 +16751,10 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N346">
-        <v>2.06</v>
+        <v>1.545</v>
       </c>
     </row>
     <row r="347" spans="1:14">
@@ -16795,10 +16795,10 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N347">
-        <v>14.368</v>
+        <v>10.776</v>
       </c>
     </row>
     <row r="348" spans="1:14">
@@ -16839,10 +16839,10 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N348">
-        <v>7.664000000000001</v>
+        <v>5.748</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -16927,10 +16927,10 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N350">
-        <v>6.582</v>
+        <v>8.776000000000002</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -16971,10 +16971,10 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N351">
-        <v>6.582</v>
+        <v>8.776000000000002</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -17015,10 +17015,10 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N352">
-        <v>6.582</v>
+        <v>8.776000000000002</v>
       </c>
     </row>
     <row r="353" spans="1:14">
@@ -17103,10 +17103,10 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N354">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -17191,10 +17191,10 @@
         <v>0</v>
       </c>
       <c r="M356">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N356">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -17235,10 +17235,10 @@
         <v>0</v>
       </c>
       <c r="M357">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N357">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="358" spans="1:14">
@@ -17279,10 +17279,10 @@
         <v>0</v>
       </c>
       <c r="M358">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N358">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="359" spans="1:14">
@@ -17323,10 +17323,10 @@
         <v>0</v>
       </c>
       <c r="M359">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N359">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="360" spans="1:14">
@@ -17367,10 +17367,10 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N360">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:14">
@@ -17411,10 +17411,10 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N361">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -17455,10 +17455,10 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N362">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="363" spans="1:14">
@@ -17499,10 +17499,10 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N363">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="364" spans="1:14">
@@ -17543,10 +17543,10 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N364">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -17587,10 +17587,10 @@
         <v>0</v>
       </c>
       <c r="M365">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N365">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="366" spans="1:14">
@@ -17631,10 +17631,10 @@
         <v>0</v>
       </c>
       <c r="M366">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N366">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="367" spans="1:14">
@@ -17675,10 +17675,10 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N367">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="368" spans="1:14">
@@ -17719,10 +17719,10 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N368">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -17763,10 +17763,10 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N369">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:14">
@@ -17807,10 +17807,10 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N370">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -17851,10 +17851,10 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N371">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -17939,10 +17939,10 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N373">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:14">
@@ -17983,10 +17983,10 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N374">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="375" spans="1:14">
@@ -18027,10 +18027,10 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N375">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="376" spans="1:14">
@@ -18071,10 +18071,10 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N376">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="377" spans="1:14">
@@ -18115,10 +18115,10 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N377">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="378" spans="1:14">
@@ -18159,10 +18159,10 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N378">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:14">
@@ -18203,10 +18203,10 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N379">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="380" spans="1:14">
@@ -18247,10 +18247,10 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N380">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="381" spans="1:14">
@@ -18291,10 +18291,10 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N381">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -18335,10 +18335,10 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N382">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:14">
@@ -18379,10 +18379,10 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -18423,10 +18423,10 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N384">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="385" spans="1:14">
@@ -18687,10 +18687,10 @@
         <v>0</v>
       </c>
       <c r="M390">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N390">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="391" spans="1:14">
@@ -18731,10 +18731,10 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N391">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="392" spans="1:14">
@@ -18775,10 +18775,10 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N392">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:14">
@@ -18951,10 +18951,10 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N396">
-        <v>2.64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:14">
@@ -18995,10 +18995,10 @@
         <v>0</v>
       </c>
       <c r="M397">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N397">
-        <v>16.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:14">
@@ -19039,10 +19039,10 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N398">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="399" spans="1:14">
@@ -19083,10 +19083,10 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N399">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -19127,10 +19127,10 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N400">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -19171,10 +19171,10 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N401">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="402" spans="1:14">
@@ -19215,10 +19215,10 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N402">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:14">
@@ -19303,10 +19303,10 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N404">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="405" spans="1:14">
@@ -19347,10 +19347,10 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N405">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -19391,10 +19391,10 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N406">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -19435,10 +19435,10 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N407">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="408" spans="1:14">
@@ -19523,10 +19523,10 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N409">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="410" spans="1:14">
@@ -19567,10 +19567,10 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N410">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -19611,10 +19611,10 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N411">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -19655,10 +19655,10 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N412">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -19699,10 +19699,10 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N413">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="414" spans="1:14">
@@ -19743,10 +19743,10 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N414">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="415" spans="1:14">
@@ -19787,10 +19787,10 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N415">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="416" spans="1:14">
@@ -19831,10 +19831,10 @@
         <v>0</v>
       </c>
       <c r="M416">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N416">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="417" spans="1:14">
@@ -19875,10 +19875,10 @@
         <v>0</v>
       </c>
       <c r="M417">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N417">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="418" spans="1:14">
@@ -19919,10 +19919,10 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N418">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="419" spans="1:14">
@@ -19963,10 +19963,10 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N419">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="420" spans="1:14">
@@ -20139,10 +20139,10 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N423">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -20183,10 +20183,10 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N424">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="425" spans="1:14">
@@ -20227,10 +20227,10 @@
         <v>0</v>
       </c>
       <c r="M425">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N425">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="426" spans="1:14">
@@ -20271,10 +20271,10 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N426">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -20359,10 +20359,10 @@
         <v>0</v>
       </c>
       <c r="M428">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N428">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:14">
@@ -20403,10 +20403,10 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N429">
-        <v>2.64</v>
+        <v>3.696</v>
       </c>
     </row>
     <row r="430" spans="1:14">
@@ -20447,10 +20447,10 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N430">
-        <v>16.5</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="431" spans="1:14">
@@ -20491,10 +20491,10 @@
         <v>0</v>
       </c>
       <c r="M431">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N431">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432" spans="1:14">
@@ -20799,10 +20799,10 @@
         <v>0</v>
       </c>
       <c r="M438">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N438">
-        <v>5.748</v>
+        <v>7.664000000000001</v>
       </c>
     </row>
     <row r="439" spans="1:14">
@@ -20843,10 +20843,10 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N439">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="440" spans="1:14">
@@ -20887,10 +20887,10 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N440">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="441" spans="1:14">
@@ -20931,10 +20931,10 @@
         <v>0</v>
       </c>
       <c r="M441">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N441">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:14">
@@ -21063,10 +21063,10 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N444">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="445" spans="1:14">
@@ -21107,10 +21107,10 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N445">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="446" spans="1:14">
@@ -21151,10 +21151,10 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N446">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="447" spans="1:14">
@@ -21195,10 +21195,10 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N447">
-        <v>18.352</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="448" spans="1:14">
@@ -21239,10 +21239,10 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N448">
-        <v>18.352</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="449" spans="1:14">
@@ -21283,10 +21283,10 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N449">
-        <v>18.352</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -21415,10 +21415,10 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N452">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="453" spans="1:14">
@@ -21503,10 +21503,10 @@
         <v>0</v>
       </c>
       <c r="M454">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N454">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="455" spans="1:14">
@@ -21723,10 +21723,10 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N459">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="460" spans="1:14">
@@ -21767,10 +21767,10 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N460">
-        <v>2.06</v>
+        <v>1.545</v>
       </c>
     </row>
     <row r="461" spans="1:14">
@@ -21811,10 +21811,10 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N461">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="462" spans="1:14">
@@ -21855,10 +21855,10 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N462">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="463" spans="1:14">
@@ -22119,10 +22119,10 @@
         <v>0</v>
       </c>
       <c r="M468">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N468">
-        <v>9.843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:14">
@@ -22207,10 +22207,10 @@
         <v>0</v>
       </c>
       <c r="M470">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N470">
-        <v>8.709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:14">
@@ -22251,10 +22251,10 @@
         <v>0</v>
       </c>
       <c r="M471">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N471">
-        <v>8.709</v>
+        <v>65</v>
       </c>
     </row>
     <row r="472" spans="1:14">
@@ -22295,10 +22295,10 @@
         <v>0</v>
       </c>
       <c r="M472">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N472">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="473" spans="1:14">
@@ -22339,10 +22339,10 @@
         <v>0</v>
       </c>
       <c r="M473">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N473">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="474" spans="1:14">
@@ -22383,10 +22383,10 @@
         <v>0</v>
       </c>
       <c r="M474">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N474">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="475" spans="1:14">
@@ -22427,10 +22427,10 @@
         <v>0</v>
       </c>
       <c r="M475">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N475">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:14">
@@ -22515,10 +22515,10 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N477">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="478" spans="1:14">
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N478">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="479" spans="1:14">
@@ -22735,10 +22735,10 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N482">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="483" spans="1:14">
@@ -22779,10 +22779,10 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N483">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="484" spans="1:14">
@@ -22823,10 +22823,10 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N484">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="485" spans="1:14">
@@ -23043,10 +23043,10 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N489">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:14">
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="M503">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N503">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="504" spans="1:14">
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="M505">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N505">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="506" spans="1:14">
@@ -23835,10 +23835,10 @@
         <v>0</v>
       </c>
       <c r="M507">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N507">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="508" spans="1:14">
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N513">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="514" spans="1:14">
@@ -24231,10 +24231,10 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N516">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="517" spans="1:14">
@@ -24275,10 +24275,10 @@
         <v>0</v>
       </c>
       <c r="M517">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N517">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:14">
@@ -24319,10 +24319,10 @@
         <v>0</v>
       </c>
       <c r="M518">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N518">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="519" spans="1:14">
@@ -24363,10 +24363,10 @@
         <v>0</v>
       </c>
       <c r="M519">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N519">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="520" spans="1:14">
@@ -24407,10 +24407,10 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N520">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:14">
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="M521">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N521">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="522" spans="1:14">
@@ -24495,10 +24495,10 @@
         <v>0</v>
       </c>
       <c r="M522">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N522">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="523" spans="1:14">
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N523">
-        <v>2.64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="524" spans="1:14">
@@ -24583,10 +24583,10 @@
         <v>0</v>
       </c>
       <c r="M524">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N524">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:14">
@@ -24627,10 +24627,10 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N525">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:14">
@@ -24671,10 +24671,10 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N526">
-        <v>12.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:14">
@@ -24715,10 +24715,10 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N527">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="528" spans="1:14">
@@ -24759,10 +24759,10 @@
         <v>0</v>
       </c>
       <c r="M528">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N528">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="529" spans="1:14">
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N530">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:14">
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="M531">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N531">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="532" spans="1:14">
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="M533">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N533">
-        <v>16.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:14">
@@ -25023,10 +25023,10 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N534">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:14">
@@ -25155,10 +25155,10 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N537">
-        <v>17.38</v>
+        <v>13.035</v>
       </c>
     </row>
     <row r="538" spans="1:14">
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N538">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="539" spans="1:14">
@@ -25243,10 +25243,10 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N539">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="540" spans="1:14">
@@ -25287,10 +25287,10 @@
         <v>0</v>
       </c>
       <c r="M540">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N540">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:14">
@@ -25331,10 +25331,10 @@
         <v>0</v>
       </c>
       <c r="M541">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N541">
-        <v>13.948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:14">
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="M542">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N542">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="543" spans="1:14">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N546">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="547" spans="1:14">
@@ -25595,10 +25595,10 @@
         <v>0</v>
       </c>
       <c r="M547">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N547">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="548" spans="1:14">
@@ -25683,10 +25683,10 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N549">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550" spans="1:14">
@@ -25727,10 +25727,10 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N550">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="551" spans="1:14">
@@ -25771,10 +25771,10 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="552" spans="1:14">
@@ -25815,10 +25815,10 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N552">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="553" spans="1:14">
@@ -25859,10 +25859,10 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N553">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="554" spans="1:14">
@@ -25903,10 +25903,10 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N554">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555" spans="1:14">
@@ -26167,10 +26167,10 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N560">
-        <v>2.06</v>
+        <v>1.545</v>
       </c>
     </row>
     <row r="561" spans="1:14">
@@ -26211,10 +26211,10 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N561">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="562" spans="1:14">
@@ -26255,10 +26255,10 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N562">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="563" spans="1:14">
@@ -26299,10 +26299,10 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N563">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="564" spans="1:14">
@@ -26343,10 +26343,10 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N564">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="565" spans="1:14">
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N565">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:14">
@@ -26431,10 +26431,10 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N566">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="567" spans="1:14">
@@ -26475,10 +26475,10 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N567">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="568" spans="1:14">
@@ -26519,10 +26519,10 @@
         <v>0</v>
       </c>
       <c r="M568">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N568">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="569" spans="1:14">
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N572">
-        <v>1.602</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="573" spans="1:14">
@@ -26739,10 +26739,10 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N573">
-        <v>1.068</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="574" spans="1:14">
@@ -26783,10 +26783,10 @@
         <v>0</v>
       </c>
       <c r="M574">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N574">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="575" spans="1:14">
@@ -26827,10 +26827,10 @@
         <v>0</v>
       </c>
       <c r="M575">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N575">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="576" spans="1:14">
@@ -26871,10 +26871,10 @@
         <v>0</v>
       </c>
       <c r="M576">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N576">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="577" spans="1:14">
@@ -26915,10 +26915,10 @@
         <v>0</v>
       </c>
       <c r="M577">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N577">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="578" spans="1:14">
@@ -26959,10 +26959,10 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N578">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:14">
@@ -27223,10 +27223,10 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N584">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="585" spans="1:14">
@@ -27267,10 +27267,10 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N585">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="586" spans="1:14">
@@ -27355,10 +27355,10 @@
         <v>0</v>
       </c>
       <c r="M587">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N587">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:14">
@@ -27399,10 +27399,10 @@
         <v>0</v>
       </c>
       <c r="M588">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N588">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="589" spans="1:14">
@@ -27443,10 +27443,10 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N589">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="590" spans="1:14">
@@ -27531,10 +27531,10 @@
         <v>0</v>
       </c>
       <c r="M591">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N591">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:14">
@@ -27575,10 +27575,10 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N592">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="593" spans="1:14">
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N593">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="594" spans="1:14">
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N594">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595" spans="1:14">
@@ -27751,10 +27751,10 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N596">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="597" spans="1:14">
@@ -27795,10 +27795,10 @@
         <v>0</v>
       </c>
       <c r="M597">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N597">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="598" spans="1:14">
@@ -27971,10 +27971,10 @@
         <v>0</v>
       </c>
       <c r="M601">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N601">
-        <v>7.065</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="602" spans="1:14">
@@ -28191,10 +28191,10 @@
         <v>0</v>
       </c>
       <c r="M606">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N606">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="607" spans="1:14">
@@ -28235,10 +28235,10 @@
         <v>0</v>
       </c>
       <c r="M607">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N607">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="608" spans="1:14">
@@ -28279,10 +28279,10 @@
         <v>0</v>
       </c>
       <c r="M608">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N608">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="609" spans="1:14">
@@ -28323,10 +28323,10 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N609">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:14">
@@ -28411,10 +28411,10 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N611">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:14">
@@ -28455,10 +28455,10 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N612">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:14">
@@ -28543,10 +28543,10 @@
         <v>0</v>
       </c>
       <c r="M614">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N614">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="615" spans="1:14">
@@ -28587,10 +28587,10 @@
         <v>0</v>
       </c>
       <c r="M615">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N615">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="616" spans="1:14">
@@ -28675,10 +28675,10 @@
         <v>0</v>
       </c>
       <c r="M617">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N617">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="618" spans="1:14">
@@ -28719,10 +28719,10 @@
         <v>0</v>
       </c>
       <c r="M618">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N618">
-        <v>11.456</v>
+        <v>8.592000000000001</v>
       </c>
     </row>
     <row r="619" spans="1:14">
@@ -28763,10 +28763,10 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N619">
-        <v>18.352</v>
+        <v>13.764</v>
       </c>
     </row>
     <row r="620" spans="1:14">
@@ -28807,10 +28807,10 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N620">
-        <v>1.764</v>
+        <v>1.323</v>
       </c>
     </row>
     <row r="621" spans="1:14">
@@ -29027,10 +29027,10 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N625">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="626" spans="1:14">
@@ -29071,10 +29071,10 @@
         <v>0</v>
       </c>
       <c r="M626">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N626">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="627" spans="1:14">
@@ -29291,10 +29291,10 @@
         <v>0</v>
       </c>
       <c r="M631">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N631">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="632" spans="1:14">
@@ -29467,10 +29467,10 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N635">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="636" spans="1:14">
@@ -29599,10 +29599,10 @@
         <v>0</v>
       </c>
       <c r="M638">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N638">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="639" spans="1:14">
@@ -29643,10 +29643,10 @@
         <v>0</v>
       </c>
       <c r="M639">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N639">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="640" spans="1:14">
@@ -29687,10 +29687,10 @@
         <v>0</v>
       </c>
       <c r="M640">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N640">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="641" spans="1:14">
@@ -29731,10 +29731,10 @@
         <v>0</v>
       </c>
       <c r="M641">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N641">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="642" spans="1:14">
@@ -29775,10 +29775,10 @@
         <v>0</v>
       </c>
       <c r="M642">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N642">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="643" spans="1:14">
@@ -29951,10 +29951,10 @@
         <v>0</v>
       </c>
       <c r="M646">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N646">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="647" spans="1:14">
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="M647">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N647">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="648" spans="1:14">
@@ -30039,10 +30039,10 @@
         <v>0</v>
       </c>
       <c r="M648">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N648">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="649" spans="1:14">
@@ -30127,10 +30127,10 @@
         <v>0</v>
       </c>
       <c r="M650">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N650">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="651" spans="1:14">
@@ -30171,10 +30171,10 @@
         <v>0</v>
       </c>
       <c r="M651">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N651">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="652" spans="1:14">
@@ -30259,10 +30259,10 @@
         <v>0</v>
       </c>
       <c r="M653">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N653">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="654" spans="1:14">
@@ -30303,10 +30303,10 @@
         <v>0</v>
       </c>
       <c r="M654">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N654">
-        <v>17.28</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="655" spans="1:14">
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N655">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="656" spans="1:14">
@@ -30391,10 +30391,10 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N656">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="657" spans="1:14">
@@ -30435,10 +30435,10 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N657">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="658" spans="1:14">
@@ -30479,10 +30479,10 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N658">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:14">
@@ -30523,10 +30523,10 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N659">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="660" spans="1:14">
@@ -30567,10 +30567,10 @@
         <v>0</v>
       </c>
       <c r="M660">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N660">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="661" spans="1:14">
@@ -30611,10 +30611,10 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N661">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="662" spans="1:14">
@@ -30655,10 +30655,10 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N662">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="663" spans="1:14">
@@ -30699,10 +30699,10 @@
         <v>0</v>
       </c>
       <c r="M663">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N663">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="664" spans="1:14">
@@ -30875,10 +30875,10 @@
         <v>0</v>
       </c>
       <c r="M667">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N667">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="668" spans="1:14">
@@ -31139,10 +31139,10 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N673">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="674" spans="1:14">
@@ -31227,10 +31227,10 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N675">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="676" spans="1:14">
@@ -31359,10 +31359,10 @@
         <v>0</v>
       </c>
       <c r="M678">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N678">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="679" spans="1:14">
@@ -31403,10 +31403,10 @@
         <v>0</v>
       </c>
       <c r="M679">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N679">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="680" spans="1:14">
@@ -31447,10 +31447,10 @@
         <v>0</v>
       </c>
       <c r="M680">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N680">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="681" spans="1:14">
@@ -31491,10 +31491,10 @@
         <v>0</v>
       </c>
       <c r="M681">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N681">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="682" spans="1:14">
@@ -31535,10 +31535,10 @@
         <v>0</v>
       </c>
       <c r="M682">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N682">
-        <v>12.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="683" spans="1:14">
@@ -31579,10 +31579,10 @@
         <v>0</v>
       </c>
       <c r="M683">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N683">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:14">
@@ -31623,10 +31623,10 @@
         <v>0</v>
       </c>
       <c r="M684">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N684">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="685" spans="1:14">
@@ -31667,10 +31667,10 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N685">
-        <v>13.948</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="686" spans="1:14">
@@ -31711,10 +31711,10 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N686">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="687" spans="1:14">
@@ -31755,10 +31755,10 @@
         <v>0</v>
       </c>
       <c r="M687">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N687">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="688" spans="1:14">
@@ -31799,10 +31799,10 @@
         <v>0</v>
       </c>
       <c r="M688">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N688">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="689" spans="1:14">
@@ -31887,10 +31887,10 @@
         <v>0</v>
       </c>
       <c r="M690">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N690">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:14">
@@ -31975,10 +31975,10 @@
         <v>0</v>
       </c>
       <c r="M692">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N692">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="693" spans="1:14">
@@ -32063,10 +32063,10 @@
         <v>0</v>
       </c>
       <c r="M694">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N694">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="695" spans="1:14">
@@ -32107,10 +32107,10 @@
         <v>0</v>
       </c>
       <c r="M695">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N695">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="696" spans="1:14">
@@ -32151,7 +32151,7 @@
         <v>0</v>
       </c>
       <c r="M696">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N696">
         <v>0</v>
@@ -32195,10 +32195,10 @@
         <v>0</v>
       </c>
       <c r="M697">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N697">
-        <v>1.68</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="698" spans="1:14">
@@ -32283,10 +32283,10 @@
         <v>0</v>
       </c>
       <c r="M699">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N699">
-        <v>4.08</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="700" spans="1:14">
@@ -32503,7 +32503,7 @@
         <v>0</v>
       </c>
       <c r="M704">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N704">
         <v>0</v>
@@ -32547,7 +32547,7 @@
         <v>0</v>
       </c>
       <c r="M705">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N705">
         <v>0</v>
@@ -32591,7 +32591,7 @@
         <v>0</v>
       </c>
       <c r="M706">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N706">
         <v>0</v>
@@ -32635,7 +32635,7 @@
         <v>0</v>
       </c>
       <c r="M707">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N707">
         <v>0</v>
@@ -32679,7 +32679,7 @@
         <v>0</v>
       </c>
       <c r="M708">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N708">
         <v>0</v>
@@ -32723,7 +32723,7 @@
         <v>0</v>
       </c>
       <c r="M709">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N709">
         <v>0</v>
@@ -33075,10 +33075,10 @@
         <v>1</v>
       </c>
       <c r="M717">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N717">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="718" spans="1:14">
@@ -33119,7 +33119,7 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N718">
         <v>0</v>
@@ -33163,7 +33163,7 @@
         <v>0</v>
       </c>
       <c r="M719">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N719">
         <v>0</v>
@@ -33427,7 +33427,7 @@
         <v>0</v>
       </c>
       <c r="M725">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N725">
         <v>0</v>
@@ -33823,10 +33823,10 @@
         <v>0</v>
       </c>
       <c r="M734">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N734">
-        <v>0</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="735" spans="1:14">
@@ -33867,10 +33867,10 @@
         <v>0</v>
       </c>
       <c r="M735">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N735">
-        <v>65</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="736" spans="1:14">
@@ -33999,10 +33999,10 @@
         <v>0</v>
       </c>
       <c r="M738">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N738">
-        <v>0</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="739" spans="1:14">
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N739">
-        <v>8.76</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="740" spans="1:14">
@@ -34131,10 +34131,10 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N741">
-        <v>6.569999999999999</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="742" spans="1:14">
@@ -34175,10 +34175,10 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N742">
-        <v>8.76</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="743" spans="1:14">
@@ -34219,10 +34219,10 @@
         <v>0</v>
       </c>
       <c r="M743">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N743">
-        <v>8.76</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="744" spans="1:14">
@@ -34395,10 +34395,10 @@
         <v>1</v>
       </c>
       <c r="M747">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N747">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="748" spans="1:14">
@@ -34615,10 +34615,10 @@
         <v>0.265957</v>
       </c>
       <c r="M752">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N752">
-        <v>3.989355</v>
+        <v>5.31914</v>
       </c>
     </row>
     <row r="753" spans="1:14">
@@ -34659,10 +34659,10 @@
         <v>0.734043</v>
       </c>
       <c r="M753">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N753">
-        <v>30.3893802</v>
+        <v>40.5191736</v>
       </c>
     </row>
     <row r="754" spans="1:14">
@@ -34879,7 +34879,7 @@
         <v>0</v>
       </c>
       <c r="M758">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N758">
         <v>0</v>
@@ -35055,10 +35055,10 @@
         <v>0</v>
       </c>
       <c r="M762">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N762">
-        <v>3.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:14">
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M772">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N772">
         <v>0</v>
@@ -35539,7 +35539,7 @@
         <v>0</v>
       </c>
       <c r="M773">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N773">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="M774">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N774">
         <v>0</v>
@@ -35627,7 +35627,7 @@
         <v>0</v>
       </c>
       <c r="M775">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N775">
         <v>0</v>
@@ -35759,7 +35759,7 @@
         <v>0</v>
       </c>
       <c r="M778">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N778">
         <v>0</v>
@@ -35847,7 +35847,7 @@
         <v>0</v>
       </c>
       <c r="M780">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N780">
         <v>0</v>
@@ -35891,7 +35891,7 @@
         <v>0</v>
       </c>
       <c r="M781">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N781">
         <v>0</v>
@@ -35935,7 +35935,7 @@
         <v>0</v>
       </c>
       <c r="M782">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N782">
         <v>0</v>
@@ -36067,7 +36067,7 @@
         <v>0</v>
       </c>
       <c r="M785">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N785">
         <v>0</v>
@@ -36111,7 +36111,7 @@
         <v>0</v>
       </c>
       <c r="M786">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N786">
         <v>0</v>
@@ -36155,7 +36155,7 @@
         <v>0</v>
       </c>
       <c r="M787">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N787">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>0</v>
       </c>
       <c r="M790">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N790">
         <v>0</v>
@@ -36331,7 +36331,7 @@
         <v>0</v>
       </c>
       <c r="M791">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N791">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="M792">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N792">
         <v>0</v>
@@ -36419,7 +36419,7 @@
         <v>0</v>
       </c>
       <c r="M793">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N793">
         <v>0</v>
@@ -36463,7 +36463,7 @@
         <v>0</v>
       </c>
       <c r="M794">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N794">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -36639,7 +36639,7 @@
         <v>0</v>
       </c>
       <c r="M798">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N798">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="M799">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N799">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="M801">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N801">
         <v>0</v>
@@ -36815,7 +36815,7 @@
         <v>0</v>
       </c>
       <c r="M802">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N802">
         <v>0</v>
@@ -37079,7 +37079,7 @@
         <v>0</v>
       </c>
       <c r="M808">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N808">
         <v>0</v>
@@ -37123,7 +37123,7 @@
         <v>0</v>
       </c>
       <c r="M809">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N809">
         <v>0</v>
@@ -37167,7 +37167,7 @@
         <v>0</v>
       </c>
       <c r="M810">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N810">
         <v>0</v>
@@ -37255,7 +37255,7 @@
         <v>0</v>
       </c>
       <c r="M812">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N812">
         <v>0</v>
@@ -37343,7 +37343,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -37607,7 +37607,7 @@
         <v>0</v>
       </c>
       <c r="M820">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N820">
         <v>0</v>
@@ -37651,7 +37651,7 @@
         <v>0</v>
       </c>
       <c r="M821">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N821">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="M822">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N822">
         <v>0</v>
@@ -37739,7 +37739,7 @@
         <v>0</v>
       </c>
       <c r="M823">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N823">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="M824">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N824">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="M826">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N826">
         <v>0</v>
@@ -37915,7 +37915,7 @@
         <v>0</v>
       </c>
       <c r="M827">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N827">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="M828">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N828">
         <v>0</v>
@@ -38003,7 +38003,7 @@
         <v>0</v>
       </c>
       <c r="M829">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N829">
         <v>0</v>
@@ -38223,7 +38223,7 @@
         <v>0</v>
       </c>
       <c r="M834">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N834">
         <v>0</v>
@@ -38267,7 +38267,7 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N835">
         <v>0</v>
@@ -38487,7 +38487,7 @@
         <v>0</v>
       </c>
       <c r="M840">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N840">
         <v>0</v>
@@ -38531,7 +38531,7 @@
         <v>0</v>
       </c>
       <c r="M841">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N841">
         <v>0</v>
@@ -38575,7 +38575,7 @@
         <v>0</v>
       </c>
       <c r="M842">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N842">
         <v>0</v>
@@ -38619,7 +38619,7 @@
         <v>0</v>
       </c>
       <c r="M843">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N843">
         <v>0</v>
@@ -38663,7 +38663,7 @@
         <v>0</v>
       </c>
       <c r="M844">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N844">
         <v>0</v>
@@ -38839,7 +38839,7 @@
         <v>0</v>
       </c>
       <c r="M848">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N848">
         <v>0</v>
@@ -38883,7 +38883,7 @@
         <v>0</v>
       </c>
       <c r="M849">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N849">
         <v>0</v>
@@ -38927,7 +38927,7 @@
         <v>0</v>
       </c>
       <c r="M850">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N850">
         <v>0</v>
@@ -38971,7 +38971,7 @@
         <v>0</v>
       </c>
       <c r="M851">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N851">
         <v>0</v>
@@ -39059,7 +39059,7 @@
         <v>0</v>
       </c>
       <c r="M853">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N853">
         <v>0</v>
@@ -39147,7 +39147,7 @@
         <v>0</v>
       </c>
       <c r="M855">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N855">
         <v>0</v>
@@ -39499,7 +39499,7 @@
         <v>0</v>
       </c>
       <c r="M863">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N863">
         <v>0</v>
@@ -39543,7 +39543,7 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N864">
         <v>0</v>
@@ -39587,7 +39587,7 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N865">
         <v>0</v>
@@ -39983,7 +39983,7 @@
         <v>0</v>
       </c>
       <c r="M874">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N874">
         <v>0</v>
@@ -40027,7 +40027,7 @@
         <v>0</v>
       </c>
       <c r="M875">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N875">
         <v>0</v>
@@ -40203,7 +40203,7 @@
         <v>0</v>
       </c>
       <c r="M879">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N879">
         <v>0</v>
@@ -40247,7 +40247,7 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N880">
         <v>0</v>
@@ -40291,7 +40291,7 @@
         <v>0</v>
       </c>
       <c r="M881">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N881">
         <v>0</v>
@@ -40731,7 +40731,7 @@
         <v>0</v>
       </c>
       <c r="M891">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N891">
         <v>0</v>
@@ -40775,7 +40775,7 @@
         <v>0</v>
       </c>
       <c r="M892">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N892">
         <v>0</v>
@@ -40863,7 +40863,7 @@
         <v>0</v>
       </c>
       <c r="M894">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N894">
         <v>0</v>
@@ -40907,7 +40907,7 @@
         <v>0</v>
       </c>
       <c r="M895">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N895">
         <v>0</v>
@@ -41347,7 +41347,7 @@
         <v>0</v>
       </c>
       <c r="M905">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N905">
         <v>0</v>
@@ -41391,7 +41391,7 @@
         <v>0</v>
       </c>
       <c r="M906">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N906">
         <v>0</v>
@@ -41435,7 +41435,7 @@
         <v>0</v>
       </c>
       <c r="M907">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N907">
         <v>0</v>
@@ -41875,7 +41875,7 @@
         <v>0</v>
       </c>
       <c r="M917">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N917">
         <v>0</v>
@@ -41919,7 +41919,7 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N918">
         <v>0</v>
@@ -42095,7 +42095,7 @@
         <v>0</v>
       </c>
       <c r="M922">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N922">
         <v>0</v>
@@ -42227,7 +42227,7 @@
         <v>0</v>
       </c>
       <c r="M925">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N925">
         <v>0</v>
@@ -42491,7 +42491,7 @@
         <v>0</v>
       </c>
       <c r="M931">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N931">
         <v>0</v>
@@ -42579,7 +42579,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -42667,7 +42667,7 @@
         <v>0</v>
       </c>
       <c r="M935">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="N935">
         <v>0</v>
@@ -42711,7 +42711,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -42843,7 +42843,7 @@
         <v>0</v>
       </c>
       <c r="M939">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N939">
         <v>0</v>
@@ -42931,7 +42931,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -42975,7 +42975,7 @@
         <v>0</v>
       </c>
       <c r="M942">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N942">
         <v>0</v>
@@ -43107,7 +43107,7 @@
         <v>0</v>
       </c>
       <c r="M945">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N945">
         <v>0</v>
@@ -43195,7 +43195,7 @@
         <v>0</v>
       </c>
       <c r="M947">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N947">
         <v>0</v>
@@ -43547,7 +43547,7 @@
         <v>0</v>
       </c>
       <c r="M955">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N955">
         <v>0</v>
@@ -43635,7 +43635,7 @@
         <v>0</v>
       </c>
       <c r="M957">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N957">
         <v>0</v>
@@ -43855,7 +43855,7 @@
         <v>0</v>
       </c>
       <c r="M962">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N962">
         <v>0</v>
@@ -43943,7 +43943,7 @@
         <v>0</v>
       </c>
       <c r="M964">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N964">
         <v>0</v>
@@ -43987,7 +43987,7 @@
         <v>0</v>
       </c>
       <c r="M965">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N965">
         <v>0</v>
@@ -44383,7 +44383,7 @@
         <v>0</v>
       </c>
       <c r="M974">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N974">
         <v>0</v>
@@ -44735,7 +44735,7 @@
         <v>0</v>
       </c>
       <c r="M982">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N982">
         <v>0</v>
@@ -44779,7 +44779,7 @@
         <v>0</v>
       </c>
       <c r="M983">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N983">
         <v>0</v>
@@ -44823,7 +44823,7 @@
         <v>0</v>
       </c>
       <c r="M984">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N984">
         <v>0</v>
@@ -44867,7 +44867,7 @@
         <v>0</v>
       </c>
       <c r="M985">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N985">
         <v>0</v>
@@ -44911,7 +44911,7 @@
         <v>0</v>
       </c>
       <c r="M986">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N986">
         <v>0</v>
@@ -44955,7 +44955,7 @@
         <v>0</v>
       </c>
       <c r="M987">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N987">
         <v>0</v>
@@ -45131,7 +45131,7 @@
         <v>0</v>
       </c>
       <c r="M991">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N991">
         <v>0</v>
@@ -45351,7 +45351,7 @@
         <v>0</v>
       </c>
       <c r="M996">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N996">
         <v>0</v>
@@ -45395,7 +45395,7 @@
         <v>0</v>
       </c>
       <c r="M997">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N997">
         <v>0</v>
@@ -46407,7 +46407,7 @@
         <v>0</v>
       </c>
       <c r="M1020">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1020">
         <v>0</v>
@@ -46891,7 +46891,7 @@
         <v>0</v>
       </c>
       <c r="M1031">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1031">
         <v>0</v>
@@ -47067,7 +47067,7 @@
         <v>0</v>
       </c>
       <c r="M1035">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1035">
         <v>0</v>
@@ -47507,7 +47507,7 @@
         <v>0</v>
       </c>
       <c r="M1045">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1045">
         <v>0</v>
@@ -47551,7 +47551,7 @@
         <v>0</v>
       </c>
       <c r="M1046">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1046">
         <v>0</v>
@@ -47815,7 +47815,7 @@
         <v>0</v>
       </c>
       <c r="M1052">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1052">
         <v>0</v>
@@ -48035,7 +48035,7 @@
         <v>0</v>
       </c>
       <c r="M1057">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1057">
         <v>0</v>
@@ -48123,7 +48123,7 @@
         <v>0</v>
       </c>
       <c r="M1059">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1059">
         <v>0</v>
@@ -48299,7 +48299,7 @@
         <v>0</v>
       </c>
       <c r="M1063">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1063">
         <v>0</v>
@@ -48475,7 +48475,7 @@
         <v>0</v>
       </c>
       <c r="M1067">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1067">
         <v>0</v>
@@ -48519,7 +48519,7 @@
         <v>0</v>
       </c>
       <c r="M1068">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1068">
         <v>0</v>
@@ -48871,7 +48871,7 @@
         <v>0</v>
       </c>
       <c r="M1076">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1076">
         <v>0</v>
@@ -48915,7 +48915,7 @@
         <v>0</v>
       </c>
       <c r="M1077">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1077">
         <v>0</v>
@@ -48959,7 +48959,7 @@
         <v>0</v>
       </c>
       <c r="M1078">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1078">
         <v>0</v>
@@ -49003,7 +49003,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1079">
         <v>0</v>
@@ -49091,7 +49091,7 @@
         <v>0</v>
       </c>
       <c r="M1081">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1081">
         <v>0</v>
@@ -49355,7 +49355,7 @@
         <v>0</v>
       </c>
       <c r="M1087">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1087">
         <v>0</v>
@@ -49399,7 +49399,7 @@
         <v>0</v>
       </c>
       <c r="M1088">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1088">
         <v>0</v>
@@ -49575,7 +49575,7 @@
         <v>0</v>
       </c>
       <c r="M1092">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1092">
         <v>0</v>
@@ -49619,7 +49619,7 @@
         <v>0</v>
       </c>
       <c r="M1093">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1093">
         <v>0</v>
@@ -50587,7 +50587,7 @@
         <v>0</v>
       </c>
       <c r="M1115">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1115">
         <v>0</v>
@@ -50851,7 +50851,7 @@
         <v>0</v>
       </c>
       <c r="M1121">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1121">
         <v>0</v>
@@ -50895,7 +50895,7 @@
         <v>0</v>
       </c>
       <c r="M1122">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1122">
         <v>0</v>
@@ -51027,7 +51027,7 @@
         <v>0</v>
       </c>
       <c r="M1125">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1125">
         <v>0</v>
@@ -51071,7 +51071,7 @@
         <v>0</v>
       </c>
       <c r="M1126">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1126">
         <v>0</v>
@@ -51159,7 +51159,7 @@
         <v>0</v>
       </c>
       <c r="M1128">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1128">
         <v>0</v>
@@ -51203,7 +51203,7 @@
         <v>0</v>
       </c>
       <c r="M1129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1129">
         <v>0</v>
@@ -51423,7 +51423,7 @@
         <v>0</v>
       </c>
       <c r="M1134">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1134">
         <v>0</v>
@@ -51467,7 +51467,7 @@
         <v>0</v>
       </c>
       <c r="M1135">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1135">
         <v>0</v>
@@ -51687,7 +51687,7 @@
         <v>0</v>
       </c>
       <c r="M1140">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1140">
         <v>0</v>
@@ -51775,7 +51775,7 @@
         <v>0</v>
       </c>
       <c r="M1142">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1142">
         <v>0</v>
@@ -51819,7 +51819,7 @@
         <v>0</v>
       </c>
       <c r="M1143">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1143">
         <v>0</v>
@@ -51951,7 +51951,7 @@
         <v>0</v>
       </c>
       <c r="M1146">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1146">
         <v>0</v>
@@ -51995,7 +51995,7 @@
         <v>0</v>
       </c>
       <c r="M1147">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N1147">
         <v>0</v>
@@ -52039,7 +52039,7 @@
         <v>0</v>
       </c>
       <c r="M1148">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1148">
         <v>0</v>
@@ -52215,7 +52215,7 @@
         <v>0</v>
       </c>
       <c r="M1152">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1152">
         <v>0</v>
@@ -52259,7 +52259,7 @@
         <v>0</v>
       </c>
       <c r="M1153">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1153">
         <v>0</v>
@@ -53315,7 +53315,7 @@
         <v>0</v>
       </c>
       <c r="M1177">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1177">
         <v>0</v>
